--- a/output/plannet-PlanNet-Practitioner.xlsx
+++ b/output/plannet-PlanNet-Practitioner.xlsx
@@ -153,7 +153,7 @@
     <t>plannet-PlanNet-Practitioner</t>
   </si>
   <si>
-    <t>PlanNet-Practitioner</t>
+    <t>PlanNet-Practitioner is a person who is directly or indirectly involved in the provisioning of healthcare.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -339,6 +339,16 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>viaintermediary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-ViaIntermediary-extension}
+</t>
+  </si>
+  <si>
+    <t>ViaIntermediary is a reference to an alternative point of contact for this organization</t>
+  </si>
+  <si>
     <t>geolocation</t>
   </si>
   <si>
@@ -346,7 +356,7 @@
 </t>
   </si>
   <si>
-    <t>GeoLocation</t>
+    <t>GeoLocation indicates the absolute geographic location of an organization’s address</t>
   </si>
   <si>
     <t>accessibility</t>
@@ -356,7 +366,7 @@
 </t>
   </si>
   <si>
-    <t>Accessibilty</t>
+    <t>Accessibilty indicates accessibility options offered by the practitioner (e.g. cultural competence)</t>
   </si>
   <si>
     <t>proficiency</t>
@@ -366,7 +376,7 @@
 </t>
   </si>
   <si>
-    <t>Proficiency</t>
+    <t>Proficiency indicates a practitioner’s level of spoken proficiency with the language(s) specified in practitioner.communication</t>
   </si>
   <si>
     <t>availabletime</t>
@@ -376,17 +386,7 @@
 </t>
   </si>
   <si>
-    <t>AvailableTime</t>
-  </si>
-  <si>
-    <t>viaintermediary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/vhdir/StructureDefinition/contactpoint-viaintermediary}
-</t>
-  </si>
-  <si>
-    <t>ViaIntermediary</t>
+    <t>AvailableTime indicates when an organization is available for contact</t>
   </si>
   <si>
     <t>qualification</t>
@@ -396,7 +396,7 @@
 </t>
   </si>
   <si>
-    <t>Qualification</t>
+    <t>Qualification indicates whether the organization has any formal qualifications</t>
   </si>
   <si>
     <t>Practitioner.modifierExtension</t>
@@ -2707,7 +2707,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>43</v>
@@ -2816,7 +2816,7 @@
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>43</v>
